--- a/public/files/CoachesTemplate.xlsx
+++ b/public/files/CoachesTemplate.xlsx
@@ -198,7 +198,7 @@
     <t xml:space="preserve">time should be in 12 hour format  hh:mm AM, hh:mm PM</t>
   </si>
   <si>
-    <t xml:space="preserve">enter number of teams coached. You cannot assign the coach to more teams than stated here</t>
+    <t xml:space="preserve">enter number of teams coached. You cannot assign the coach to more teams than stated here, Maximum should not be more than 5.</t>
   </si>
   <si>
     <t xml:space="preserve">enter days separate by a coma Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
@@ -533,7 +533,7 @@
       <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.64"/>
@@ -3901,10 +3901,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.75"/>
